--- a/data/descargables/DirectivosCFK.xlsx
+++ b/data/descargables/DirectivosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP535"/>
+  <dimension ref="A1:AP541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98342,6 +98342,1104 @@
         <v>76</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>633</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E536" t="n">
+        <v>80257663</v>
+      </c>
+      <c r="F536" t="n">
+        <v>38</v>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>Coordinador/a de área</t>
+        </is>
+      </c>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N536" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O536" t="n">
+        <v>20</v>
+      </c>
+      <c r="P536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R536" t="n">
+        <v>3</v>
+      </c>
+      <c r="S536" t="n">
+        <v>0</v>
+      </c>
+      <c r="T536" t="n">
+        <v>400</v>
+      </c>
+      <c r="U536" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V536" t="inlineStr">
+        <is>
+          <t>PROGRAMACIÓN</t>
+        </is>
+      </c>
+      <c r="W536" t="inlineStr"/>
+      <c r="X536" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y536" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z536" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA536" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB536" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC536" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD536" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE536" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF536" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG536" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH536" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI536" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ536" t="inlineStr"/>
+      <c r="AK536" t="inlineStr">
+        <is>
+          <t>Mentoría, Autoestudio, Investigación-Acción</t>
+        </is>
+      </c>
+      <c r="AL536" t="inlineStr">
+        <is>
+          <t>Casi siempre</t>
+        </is>
+      </c>
+      <c r="AM536" t="inlineStr">
+        <is>
+          <t>045</t>
+        </is>
+      </c>
+      <c r="AN536" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO536" t="n">
+        <v>1900</v>
+      </c>
+      <c r="AP536" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>634</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E537" t="n">
+        <v>34967706</v>
+      </c>
+      <c r="F537" t="n">
+        <v>68</v>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>Directivo/a docente</t>
+        </is>
+      </c>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N537" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O537" t="n">
+        <v>1</v>
+      </c>
+      <c r="P537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q537" t="n">
+        <v>1</v>
+      </c>
+      <c r="R537" t="n">
+        <v>4</v>
+      </c>
+      <c r="S537" t="n">
+        <v>3</v>
+      </c>
+      <c r="T537" t="inlineStr"/>
+      <c r="U537" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V537" t="inlineStr">
+        <is>
+          <t>Artísticos, lúdicas, juegos matemáticos, investigación.</t>
+        </is>
+      </c>
+      <c r="W537" t="inlineStr">
+        <is>
+          <t>En las estadísticas de discapacidades algunos diagnósticos no están registrados ya que los docentes no somos los indicados. El programa de inclusión está en esa labor con los padres de familia. Por lo tanto no hay precisión en los números aquí relacionados.</t>
+        </is>
+      </c>
+      <c r="X537" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y537" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z537" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA537" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB537" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC537" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD537" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE537" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF537" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG537" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH537" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI537" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ537" t="inlineStr">
+        <is>
+          <t>En este momento las directivas han iniciado el trabajo de orientación para los estudiantes de grado 11 mostrando las oportunidades en las diversas áreas profesionales.</t>
+        </is>
+      </c>
+      <c r="AK537" t="inlineStr">
+        <is>
+          <t>Autoestudio</t>
+        </is>
+      </c>
+      <c r="AL537" t="inlineStr">
+        <is>
+          <t>A veces</t>
+        </is>
+      </c>
+      <c r="AM537" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="AN537" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO537" t="n">
+        <v>438</v>
+      </c>
+      <c r="AP537" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>635</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
+        <v>1010227394</v>
+      </c>
+      <c r="F538" t="n">
+        <v>26</v>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>Soltero/a</t>
+        </is>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>Directivo/a docente</t>
+        </is>
+      </c>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N538" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O538" t="n">
+        <v>10</v>
+      </c>
+      <c r="P538" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R538" t="n">
+        <v>10</v>
+      </c>
+      <c r="S538" t="n">
+        <v>0</v>
+      </c>
+      <c r="T538" t="n">
+        <v>20</v>
+      </c>
+      <c r="U538" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V538" t="inlineStr">
+        <is>
+          <t>Programación</t>
+        </is>
+      </c>
+      <c r="W538" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="X538" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y538" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z538" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA538" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB538" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC538" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD538" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE538" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF538" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG538" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH538" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI538" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ538" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="AK538" t="inlineStr">
+        <is>
+          <t>Observación de aula, Mentoría, Autoestudio, Investigación-Acción</t>
+        </is>
+      </c>
+      <c r="AL538" t="inlineStr">
+        <is>
+          <t>Siempre</t>
+        </is>
+      </c>
+      <c r="AM538" t="inlineStr">
+        <is>
+          <t>045</t>
+        </is>
+      </c>
+      <c r="AN538" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO538" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP538" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>636</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E539" t="n">
+        <v>13055265</v>
+      </c>
+      <c r="F539" t="n">
+        <v>47</v>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>Directivo/a docente</t>
+        </is>
+      </c>
+      <c r="M539" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N539" t="inlineStr"/>
+      <c r="O539" t="inlineStr"/>
+      <c r="P539" t="inlineStr"/>
+      <c r="Q539" t="inlineStr"/>
+      <c r="R539" t="inlineStr"/>
+      <c r="S539" t="inlineStr"/>
+      <c r="T539" t="inlineStr"/>
+      <c r="U539" t="inlineStr">
+        <is>
+          <t>No sé qué es el pensamiento computacional.</t>
+        </is>
+      </c>
+      <c r="V539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Programación </t>
+        </is>
+      </c>
+      <c r="W539" t="inlineStr">
+        <is>
+          <t>Ningina</t>
+        </is>
+      </c>
+      <c r="X539" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y539" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z539" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA539" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB539" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC539" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD539" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE539" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF539" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG539" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH539" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI539" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ninguna </t>
+        </is>
+      </c>
+      <c r="AK539" t="inlineStr">
+        <is>
+          <t>Ninguna de las anteriores</t>
+        </is>
+      </c>
+      <c r="AL539" t="inlineStr">
+        <is>
+          <t>Casi nunca</t>
+        </is>
+      </c>
+      <c r="AM539" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="AN539" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO539" t="n">
+        <v>1900</v>
+      </c>
+      <c r="AP539" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>637</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
+        <v>8243619</v>
+      </c>
+      <c r="F540" t="n">
+        <v>61</v>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>Viudo/a</t>
+        </is>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>Coordinador/a de área</t>
+        </is>
+      </c>
+      <c r="M540" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N540" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O540" t="n">
+        <v>9</v>
+      </c>
+      <c r="P540" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q540" t="n">
+        <v>1</v>
+      </c>
+      <c r="R540" t="n">
+        <v>10</v>
+      </c>
+      <c r="S540" t="n">
+        <v>3</v>
+      </c>
+      <c r="T540" t="n">
+        <v>5</v>
+      </c>
+      <c r="U540" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V540" t="inlineStr">
+        <is>
+          <t>El area de informatica debe ser transversal  a todas las demas areas</t>
+        </is>
+      </c>
+      <c r="W540" t="inlineStr"/>
+      <c r="X540" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y540" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z540" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA540" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB540" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC540" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD540" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE540" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF540" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG540" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH540" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI540" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ540" t="inlineStr"/>
+      <c r="AK540" t="inlineStr">
+        <is>
+          <t>Autoestudio, Investigación-Acción</t>
+        </is>
+      </c>
+      <c r="AL540" t="inlineStr">
+        <is>
+          <t>A veces</t>
+        </is>
+      </c>
+      <c r="AM540" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="AN540" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO540" t="n">
+        <v>1100</v>
+      </c>
+      <c r="AP540" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>638</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E541" t="n">
+        <v>84082559</v>
+      </c>
+      <c r="F541" t="n">
+        <v>43</v>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>Casado/a - En unión libre</t>
+        </is>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>Coordinador/a de área</t>
+        </is>
+      </c>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N541" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="O541" t="n">
+        <v>0</v>
+      </c>
+      <c r="P541" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q541" t="n">
+        <v>1</v>
+      </c>
+      <c r="R541" t="n">
+        <v>0</v>
+      </c>
+      <c r="S541" t="n">
+        <v>1</v>
+      </c>
+      <c r="T541" t="n">
+        <v>0</v>
+      </c>
+      <c r="U541" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V541" t="inlineStr">
+        <is>
+          <t>Manejo de dispositivos, manejo de la tecnología en general, que reciban una información más completa de información, comunicación y tecnología, programación en los grados superiores</t>
+        </is>
+      </c>
+      <c r="W541" t="inlineStr"/>
+      <c r="X541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI541" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ541" t="inlineStr"/>
+      <c r="AK541" t="inlineStr">
+        <is>
+          <t>Autoestudio</t>
+        </is>
+      </c>
+      <c r="AL541" t="inlineStr">
+        <is>
+          <t>A veces</t>
+        </is>
+      </c>
+      <c r="AM541" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="AN541" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO541" t="n">
+        <v>1210</v>
+      </c>
+      <c r="AP541" t="n">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
